--- a/meta/en/16-b-1.xlsx
+++ b/meta/en/16-b-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -109,21 +109,6 @@
     <t>10.b.1: Total resource flows for development, by recipient and donor countries and type of flow (e.g. official development assistance, foreign direct investment and other flows)</t>
   </si>
   <si>
-    <t>National Statistical Committee of the Kyrgyz Republic (Household Statistics Department)</t>
-  </si>
-  <si>
-    <t>Kalymbetova Y.I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y.kalymbetova@gmail.com </t>
-  </si>
-  <si>
-    <t>0(312) 664164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.stat.kg </t>
-  </si>
-  <si>
     <t>Discrimination can prevent people from having fair and equal access to opportunities and services. These questions are designed to assess respondents’ experiences of discrimination and harassment that occurred in the 12 months prior to the survey. The questions include specific reasons for the discrimination and harassment that may help respondents recall the events. The current questions are based on the recommended set of questions available at the beginning of MICS6.</t>
   </si>
   <si>
@@ -147,18 +132,41 @@
   </si>
   <si>
     <t>The indicator is disaggregated by income, age group, geographic location, area, education, and disability status).</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,26 +233,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -556,7 +568,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +695,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,15 +745,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>43</v>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
